--- a/natmiOut/YoungD2/LR-pairs_lrc2p/Cxcl1-Cxcr1.xlsx
+++ b/natmiOut/YoungD2/LR-pairs_lrc2p/Cxcl1-Cxcr1.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="28">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -455,7 +455,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T7"/>
+  <dimension ref="A1:T25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -534,60 +534,60 @@
         <v>27</v>
       </c>
       <c r="D2" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>5.72040518388844</v>
+        <v>12.47636466666667</v>
       </c>
       <c r="H2">
-        <v>5.72040518388844</v>
+        <v>37.429094</v>
       </c>
       <c r="I2">
-        <v>0.007461600504690534</v>
+        <v>0.01574043280769249</v>
       </c>
       <c r="J2">
-        <v>0.007461600504690534</v>
+        <v>0.0157404328076925</v>
       </c>
       <c r="K2">
         <v>1</v>
       </c>
       <c r="L2">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M2">
-        <v>8.849153618004211</v>
+        <v>0.01218566666666667</v>
       </c>
       <c r="N2">
-        <v>8.849153618004211</v>
+        <v>0.036557</v>
       </c>
       <c r="O2">
-        <v>1</v>
+        <v>0.001323065176875323</v>
       </c>
       <c r="P2">
-        <v>1</v>
+        <v>0.001323065176875324</v>
       </c>
       <c r="Q2">
-        <v>50.62074422945643</v>
+        <v>0.1520328210397778</v>
       </c>
       <c r="R2">
-        <v>50.62074422945643</v>
+        <v>1.368295389358</v>
       </c>
       <c r="S2">
-        <v>0.007461600504690534</v>
+        <v>2.082561851680382E-05</v>
       </c>
       <c r="T2">
-        <v>0.007461600504690534</v>
+        <v>2.082561851680382E-05</v>
       </c>
     </row>
     <row r="3" spans="1:20">
       <c r="A3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B3" t="s">
         <v>26</v>
@@ -596,60 +596,60 @@
         <v>27</v>
       </c>
       <c r="D3" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>533.656917427126</v>
+        <v>12.47636466666667</v>
       </c>
       <c r="H3">
-        <v>533.656917427126</v>
+        <v>37.429094</v>
       </c>
       <c r="I3">
-        <v>0.6960931256444883</v>
+        <v>0.01574043280769249</v>
       </c>
       <c r="J3">
-        <v>0.6960931256444883</v>
+        <v>0.0157404328076925</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L3">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M3">
-        <v>8.849153618004211</v>
+        <v>0.2032383333333333</v>
       </c>
       <c r="N3">
-        <v>8.849153618004211</v>
+        <v>0.609715</v>
       </c>
       <c r="O3">
-        <v>1</v>
+        <v>0.02206670909315693</v>
       </c>
       <c r="P3">
-        <v>1</v>
+        <v>0.02206670909315693</v>
       </c>
       <c r="Q3">
-        <v>4722.412041623226</v>
+        <v>2.535675560912222</v>
       </c>
       <c r="R3">
-        <v>4722.412041623226</v>
+        <v>22.82108004821</v>
       </c>
       <c r="S3">
-        <v>0.6960931256444883</v>
+        <v>0.0003473395517677337</v>
       </c>
       <c r="T3">
-        <v>0.6960931256444883</v>
+        <v>0.0003473395517677338</v>
       </c>
     </row>
     <row r="4" spans="1:20">
       <c r="A4" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B4" t="s">
         <v>26</v>
@@ -658,60 +658,60 @@
         <v>27</v>
       </c>
       <c r="D4" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>19.594124032635</v>
+        <v>12.47636466666667</v>
       </c>
       <c r="H4">
-        <v>19.594124032635</v>
+        <v>37.429094</v>
       </c>
       <c r="I4">
-        <v>0.02555824650020622</v>
+        <v>0.01574043280769249</v>
       </c>
       <c r="J4">
-        <v>0.02555824650020622</v>
+        <v>0.0157404328076925</v>
       </c>
       <c r="K4">
         <v>1</v>
       </c>
       <c r="L4">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M4">
-        <v>8.849153618004211</v>
+        <v>0.05279966666666667</v>
       </c>
       <c r="N4">
-        <v>8.849153618004211</v>
+        <v>0.158399</v>
       </c>
       <c r="O4">
-        <v>1</v>
+        <v>0.005732751619440172</v>
       </c>
       <c r="P4">
-        <v>1</v>
+        <v>0.005732751619440174</v>
       </c>
       <c r="Q4">
-        <v>173.3914135750153</v>
+        <v>0.6587478956117778</v>
       </c>
       <c r="R4">
-        <v>173.3914135750153</v>
+        <v>5.928731060506</v>
       </c>
       <c r="S4">
-        <v>0.02555824650020622</v>
+        <v>9.023599166898837E-05</v>
       </c>
       <c r="T4">
-        <v>0.02555824650020622</v>
+        <v>9.023599166898841E-05</v>
       </c>
     </row>
     <row r="5" spans="1:20">
       <c r="A5" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="B5" t="s">
         <v>26</v>
@@ -723,57 +723,57 @@
         <v>24</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>12.795338707476</v>
+        <v>12.47636466666667</v>
       </c>
       <c r="H5">
-        <v>12.795338707476</v>
+        <v>37.429094</v>
       </c>
       <c r="I5">
-        <v>0.01669002503988556</v>
+        <v>0.01574043280769249</v>
       </c>
       <c r="J5">
-        <v>0.01669002503988556</v>
+        <v>0.0157404328076925</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>8.849153618004211</v>
+        <v>8.941955</v>
       </c>
       <c r="N5">
-        <v>8.849153618004211</v>
+        <v>26.825865</v>
       </c>
       <c r="O5">
-        <v>1</v>
+        <v>0.9708774741105275</v>
       </c>
       <c r="P5">
-        <v>1</v>
+        <v>0.9708774741105276</v>
       </c>
       <c r="Q5">
-        <v>113.2279178168506</v>
+        <v>111.5630914129233</v>
       </c>
       <c r="R5">
-        <v>113.2279178168506</v>
+        <v>1004.06782271631</v>
       </c>
       <c r="S5">
-        <v>0.01669002503988556</v>
+        <v>0.01528203164573897</v>
       </c>
       <c r="T5">
-        <v>0.01669002503988556</v>
+        <v>0.01528203164573897</v>
       </c>
     </row>
     <row r="6" spans="1:20">
       <c r="A6" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="B6" t="s">
         <v>26</v>
@@ -782,117 +782,1233 @@
         <v>27</v>
       </c>
       <c r="D6" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>153.534837693012</v>
+        <v>536.4207763333334</v>
       </c>
       <c r="H6">
-        <v>153.534837693012</v>
+        <v>1609.262329</v>
       </c>
       <c r="I6">
-        <v>0.2002682651998834</v>
+        <v>0.676759249357605</v>
       </c>
       <c r="J6">
-        <v>0.2002682651998834</v>
+        <v>0.676759249357605</v>
       </c>
       <c r="K6">
         <v>1</v>
       </c>
       <c r="L6">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M6">
-        <v>8.849153618004211</v>
+        <v>0.01218566666666667</v>
       </c>
       <c r="N6">
-        <v>8.849153618004211</v>
+        <v>0.036557</v>
       </c>
       <c r="O6">
-        <v>1</v>
+        <v>0.001323065176875323</v>
       </c>
       <c r="P6">
-        <v>1</v>
+        <v>0.001323065176875324</v>
       </c>
       <c r="Q6">
-        <v>1358.653364460806</v>
+        <v>6.536644773472555</v>
       </c>
       <c r="R6">
-        <v>1358.653364460806</v>
+        <v>58.829802961253</v>
       </c>
       <c r="S6">
-        <v>0.2002682651998834</v>
+        <v>0.0008953965959533308</v>
       </c>
       <c r="T6">
-        <v>0.2002682651998834</v>
+        <v>0.000895396595953331</v>
       </c>
     </row>
     <row r="7" spans="1:20">
       <c r="A7" t="s">
+        <v>21</v>
+      </c>
+      <c r="B7" t="s">
+        <v>26</v>
+      </c>
+      <c r="C7" t="s">
+        <v>27</v>
+      </c>
+      <c r="D7" t="s">
+        <v>22</v>
+      </c>
+      <c r="E7">
+        <v>3</v>
+      </c>
+      <c r="F7">
+        <v>1</v>
+      </c>
+      <c r="G7">
+        <v>536.4207763333334</v>
+      </c>
+      <c r="H7">
+        <v>1609.262329</v>
+      </c>
+      <c r="I7">
+        <v>0.676759249357605</v>
+      </c>
+      <c r="J7">
+        <v>0.676759249357605</v>
+      </c>
+      <c r="K7">
+        <v>2</v>
+      </c>
+      <c r="L7">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M7">
+        <v>0.2032383333333333</v>
+      </c>
+      <c r="N7">
+        <v>0.609715</v>
+      </c>
+      <c r="O7">
+        <v>0.02206670909315693</v>
+      </c>
+      <c r="P7">
+        <v>0.02206670909315693</v>
+      </c>
+      <c r="Q7">
+        <v>109.0212645473595</v>
+      </c>
+      <c r="R7">
+        <v>981.1913809262351</v>
+      </c>
+      <c r="S7">
+        <v>0.01493384948167752</v>
+      </c>
+      <c r="T7">
+        <v>0.01493384948167752</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20">
+      <c r="A8" t="s">
+        <v>21</v>
+      </c>
+      <c r="B8" t="s">
+        <v>26</v>
+      </c>
+      <c r="C8" t="s">
+        <v>27</v>
+      </c>
+      <c r="D8" t="s">
+        <v>23</v>
+      </c>
+      <c r="E8">
+        <v>3</v>
+      </c>
+      <c r="F8">
+        <v>1</v>
+      </c>
+      <c r="G8">
+        <v>536.4207763333334</v>
+      </c>
+      <c r="H8">
+        <v>1609.262329</v>
+      </c>
+      <c r="I8">
+        <v>0.676759249357605</v>
+      </c>
+      <c r="J8">
+        <v>0.676759249357605</v>
+      </c>
+      <c r="K8">
+        <v>1</v>
+      </c>
+      <c r="L8">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M8">
+        <v>0.05279966666666667</v>
+      </c>
+      <c r="N8">
+        <v>0.158399</v>
+      </c>
+      <c r="O8">
+        <v>0.005732751619440172</v>
+      </c>
+      <c r="P8">
+        <v>0.005732751619440174</v>
+      </c>
+      <c r="Q8">
+        <v>28.32283818347456</v>
+      </c>
+      <c r="R8">
+        <v>254.905543651271</v>
+      </c>
+      <c r="S8">
+        <v>0.003879692682725925</v>
+      </c>
+      <c r="T8">
+        <v>0.003879692682725927</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20">
+      <c r="A9" t="s">
+        <v>21</v>
+      </c>
+      <c r="B9" t="s">
+        <v>26</v>
+      </c>
+      <c r="C9" t="s">
+        <v>27</v>
+      </c>
+      <c r="D9" t="s">
+        <v>24</v>
+      </c>
+      <c r="E9">
+        <v>3</v>
+      </c>
+      <c r="F9">
+        <v>1</v>
+      </c>
+      <c r="G9">
+        <v>536.4207763333334</v>
+      </c>
+      <c r="H9">
+        <v>1609.262329</v>
+      </c>
+      <c r="I9">
+        <v>0.676759249357605</v>
+      </c>
+      <c r="J9">
+        <v>0.676759249357605</v>
+      </c>
+      <c r="K9">
+        <v>3</v>
+      </c>
+      <c r="L9">
+        <v>1</v>
+      </c>
+      <c r="M9">
+        <v>8.941955</v>
+      </c>
+      <c r="N9">
+        <v>26.825865</v>
+      </c>
+      <c r="O9">
+        <v>0.9708774741105275</v>
+      </c>
+      <c r="P9">
+        <v>0.9708774741105276</v>
+      </c>
+      <c r="Q9">
+        <v>4796.650443037732</v>
+      </c>
+      <c r="R9">
+        <v>43169.85398733959</v>
+      </c>
+      <c r="S9">
+        <v>0.6570503105972482</v>
+      </c>
+      <c r="T9">
+        <v>0.6570503105972483</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20">
+      <c r="A10" t="s">
+        <v>22</v>
+      </c>
+      <c r="B10" t="s">
+        <v>26</v>
+      </c>
+      <c r="C10" t="s">
+        <v>27</v>
+      </c>
+      <c r="D10" t="s">
+        <v>21</v>
+      </c>
+      <c r="E10">
+        <v>3</v>
+      </c>
+      <c r="F10">
+        <v>1</v>
+      </c>
+      <c r="G10">
+        <v>26.33865233333333</v>
+      </c>
+      <c r="H10">
+        <v>79.015957</v>
+      </c>
+      <c r="I10">
+        <v>0.03322937397026012</v>
+      </c>
+      <c r="J10">
+        <v>0.03322937397026013</v>
+      </c>
+      <c r="K10">
+        <v>1</v>
+      </c>
+      <c r="L10">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M10">
+        <v>0.01218566666666667</v>
+      </c>
+      <c r="N10">
+        <v>0.036557</v>
+      </c>
+      <c r="O10">
+        <v>0.001323065176875323</v>
+      </c>
+      <c r="P10">
+        <v>0.001323065176875324</v>
+      </c>
+      <c r="Q10">
+        <v>0.3209540377832222</v>
+      </c>
+      <c r="R10">
+        <v>2.888586340049</v>
+      </c>
+      <c r="S10">
+        <v>4.396462754941848E-05</v>
+      </c>
+      <c r="T10">
+        <v>4.396462754941849E-05</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20">
+      <c r="A11" t="s">
+        <v>22</v>
+      </c>
+      <c r="B11" t="s">
+        <v>26</v>
+      </c>
+      <c r="C11" t="s">
+        <v>27</v>
+      </c>
+      <c r="D11" t="s">
+        <v>22</v>
+      </c>
+      <c r="E11">
+        <v>3</v>
+      </c>
+      <c r="F11">
+        <v>1</v>
+      </c>
+      <c r="G11">
+        <v>26.33865233333333</v>
+      </c>
+      <c r="H11">
+        <v>79.015957</v>
+      </c>
+      <c r="I11">
+        <v>0.03322937397026012</v>
+      </c>
+      <c r="J11">
+        <v>0.03322937397026013</v>
+      </c>
+      <c r="K11">
+        <v>2</v>
+      </c>
+      <c r="L11">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M11">
+        <v>0.2032383333333333</v>
+      </c>
+      <c r="N11">
+        <v>0.609715</v>
+      </c>
+      <c r="O11">
+        <v>0.02206670909315693</v>
+      </c>
+      <c r="P11">
+        <v>0.02206670909315693</v>
+      </c>
+      <c r="Q11">
+        <v>5.353023802472777</v>
+      </c>
+      <c r="R11">
+        <v>48.177214222255</v>
+      </c>
+      <c r="S11">
+        <v>0.0007332629287494512</v>
+      </c>
+      <c r="T11">
+        <v>0.0007332629287494515</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20">
+      <c r="A12" t="s">
+        <v>22</v>
+      </c>
+      <c r="B12" t="s">
+        <v>26</v>
+      </c>
+      <c r="C12" t="s">
+        <v>27</v>
+      </c>
+      <c r="D12" t="s">
+        <v>23</v>
+      </c>
+      <c r="E12">
+        <v>3</v>
+      </c>
+      <c r="F12">
+        <v>1</v>
+      </c>
+      <c r="G12">
+        <v>26.33865233333333</v>
+      </c>
+      <c r="H12">
+        <v>79.015957</v>
+      </c>
+      <c r="I12">
+        <v>0.03322937397026012</v>
+      </c>
+      <c r="J12">
+        <v>0.03322937397026013</v>
+      </c>
+      <c r="K12">
+        <v>1</v>
+      </c>
+      <c r="L12">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M12">
+        <v>0.05279966666666667</v>
+      </c>
+      <c r="N12">
+        <v>0.158399</v>
+      </c>
+      <c r="O12">
+        <v>0.005732751619440172</v>
+      </c>
+      <c r="P12">
+        <v>0.005732751619440174</v>
+      </c>
+      <c r="Q12">
+        <v>1.390672063649222</v>
+      </c>
+      <c r="R12">
+        <v>12.516048572843</v>
+      </c>
+      <c r="S12">
+        <v>0.0001904957474409918</v>
+      </c>
+      <c r="T12">
+        <v>0.0001904957474409919</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20">
+      <c r="A13" t="s">
+        <v>22</v>
+      </c>
+      <c r="B13" t="s">
+        <v>26</v>
+      </c>
+      <c r="C13" t="s">
+        <v>27</v>
+      </c>
+      <c r="D13" t="s">
+        <v>24</v>
+      </c>
+      <c r="E13">
+        <v>3</v>
+      </c>
+      <c r="F13">
+        <v>1</v>
+      </c>
+      <c r="G13">
+        <v>26.33865233333333</v>
+      </c>
+      <c r="H13">
+        <v>79.015957</v>
+      </c>
+      <c r="I13">
+        <v>0.03322937397026012</v>
+      </c>
+      <c r="J13">
+        <v>0.03322937397026013</v>
+      </c>
+      <c r="K13">
+        <v>3</v>
+      </c>
+      <c r="L13">
+        <v>1</v>
+      </c>
+      <c r="M13">
+        <v>8.941955</v>
+      </c>
+      <c r="N13">
+        <v>26.825865</v>
+      </c>
+      <c r="O13">
+        <v>0.9708774741105275</v>
+      </c>
+      <c r="P13">
+        <v>0.9708774741105276</v>
+      </c>
+      <c r="Q13">
+        <v>235.5190439253116</v>
+      </c>
+      <c r="R13">
+        <v>2119.671395327805</v>
+      </c>
+      <c r="S13">
+        <v>0.03226165066652026</v>
+      </c>
+      <c r="T13">
+        <v>0.03226165066652027</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
+      <c r="A14" t="s">
+        <v>23</v>
+      </c>
+      <c r="B14" t="s">
+        <v>26</v>
+      </c>
+      <c r="C14" t="s">
+        <v>27</v>
+      </c>
+      <c r="D14" t="s">
+        <v>21</v>
+      </c>
+      <c r="E14">
+        <v>3</v>
+      </c>
+      <c r="F14">
+        <v>1</v>
+      </c>
+      <c r="G14">
+        <v>14.90392133333333</v>
+      </c>
+      <c r="H14">
+        <v>44.711764</v>
+      </c>
+      <c r="I14">
+        <v>0.01880308716410299</v>
+      </c>
+      <c r="J14">
+        <v>0.01880308716410299</v>
+      </c>
+      <c r="K14">
+        <v>1</v>
+      </c>
+      <c r="L14">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M14">
+        <v>0.01218566666666667</v>
+      </c>
+      <c r="N14">
+        <v>0.036557</v>
+      </c>
+      <c r="O14">
+        <v>0.001323065176875323</v>
+      </c>
+      <c r="P14">
+        <v>0.001323065176875324</v>
+      </c>
+      <c r="Q14">
+        <v>0.1816142173942222</v>
+      </c>
+      <c r="R14">
+        <v>1.634527956548</v>
+      </c>
+      <c r="S14">
+        <v>2.487770984457605E-05</v>
+      </c>
+      <c r="T14">
+        <v>2.487770984457605E-05</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
+      <c r="A15" t="s">
+        <v>23</v>
+      </c>
+      <c r="B15" t="s">
+        <v>26</v>
+      </c>
+      <c r="C15" t="s">
+        <v>27</v>
+      </c>
+      <c r="D15" t="s">
+        <v>22</v>
+      </c>
+      <c r="E15">
+        <v>3</v>
+      </c>
+      <c r="F15">
+        <v>1</v>
+      </c>
+      <c r="G15">
+        <v>14.90392133333333</v>
+      </c>
+      <c r="H15">
+        <v>44.711764</v>
+      </c>
+      <c r="I15">
+        <v>0.01880308716410299</v>
+      </c>
+      <c r="J15">
+        <v>0.01880308716410299</v>
+      </c>
+      <c r="K15">
+        <v>2</v>
+      </c>
+      <c r="L15">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M15">
+        <v>0.2032383333333333</v>
+      </c>
+      <c r="N15">
+        <v>0.609715</v>
+      </c>
+      <c r="O15">
+        <v>0.02206670909315693</v>
+      </c>
+      <c r="P15">
+        <v>0.02206670909315693</v>
+      </c>
+      <c r="Q15">
+        <v>3.029048131917778</v>
+      </c>
+      <c r="R15">
+        <v>27.26143318726</v>
+      </c>
+      <c r="S15">
+        <v>0.0004149222545035338</v>
+      </c>
+      <c r="T15">
+        <v>0.0004149222545035339</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
+      <c r="A16" t="s">
+        <v>23</v>
+      </c>
+      <c r="B16" t="s">
+        <v>26</v>
+      </c>
+      <c r="C16" t="s">
+        <v>27</v>
+      </c>
+      <c r="D16" t="s">
+        <v>23</v>
+      </c>
+      <c r="E16">
+        <v>3</v>
+      </c>
+      <c r="F16">
+        <v>1</v>
+      </c>
+      <c r="G16">
+        <v>14.90392133333333</v>
+      </c>
+      <c r="H16">
+        <v>44.711764</v>
+      </c>
+      <c r="I16">
+        <v>0.01880308716410299</v>
+      </c>
+      <c r="J16">
+        <v>0.01880308716410299</v>
+      </c>
+      <c r="K16">
+        <v>1</v>
+      </c>
+      <c r="L16">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M16">
+        <v>0.05279966666666667</v>
+      </c>
+      <c r="N16">
+        <v>0.158399</v>
+      </c>
+      <c r="O16">
+        <v>0.005732751619440172</v>
+      </c>
+      <c r="P16">
+        <v>0.005732751619440174</v>
+      </c>
+      <c r="Q16">
+        <v>0.7869220784262223</v>
+      </c>
+      <c r="R16">
+        <v>7.082298705836001</v>
+      </c>
+      <c r="S16">
+        <v>0.0001077934283904861</v>
+      </c>
+      <c r="T16">
+        <v>0.0001077934283904862</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
+      <c r="A17" t="s">
+        <v>23</v>
+      </c>
+      <c r="B17" t="s">
+        <v>26</v>
+      </c>
+      <c r="C17" t="s">
+        <v>27</v>
+      </c>
+      <c r="D17" t="s">
+        <v>24</v>
+      </c>
+      <c r="E17">
+        <v>3</v>
+      </c>
+      <c r="F17">
+        <v>1</v>
+      </c>
+      <c r="G17">
+        <v>14.90392133333333</v>
+      </c>
+      <c r="H17">
+        <v>44.711764</v>
+      </c>
+      <c r="I17">
+        <v>0.01880308716410299</v>
+      </c>
+      <c r="J17">
+        <v>0.01880308716410299</v>
+      </c>
+      <c r="K17">
+        <v>3</v>
+      </c>
+      <c r="L17">
+        <v>1</v>
+      </c>
+      <c r="M17">
+        <v>8.941955</v>
+      </c>
+      <c r="N17">
+        <v>26.825865</v>
+      </c>
+      <c r="O17">
+        <v>0.9708774741105275</v>
+      </c>
+      <c r="P17">
+        <v>0.9708774741105276</v>
+      </c>
+      <c r="Q17">
+        <v>133.2701938862067</v>
+      </c>
+      <c r="R17">
+        <v>1199.43174497586</v>
+      </c>
+      <c r="S17">
+        <v>0.01825549377136439</v>
+      </c>
+      <c r="T17">
+        <v>0.0182554937713644</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20">
+      <c r="A18" t="s">
+        <v>24</v>
+      </c>
+      <c r="B18" t="s">
+        <v>26</v>
+      </c>
+      <c r="C18" t="s">
+        <v>27</v>
+      </c>
+      <c r="D18" t="s">
+        <v>21</v>
+      </c>
+      <c r="E18">
+        <v>3</v>
+      </c>
+      <c r="F18">
+        <v>1</v>
+      </c>
+      <c r="G18">
+        <v>159.9495013333334</v>
+      </c>
+      <c r="H18">
+        <v>479.848504</v>
+      </c>
+      <c r="I18">
+        <v>0.2017955106015594</v>
+      </c>
+      <c r="J18">
+        <v>0.2017955106015595</v>
+      </c>
+      <c r="K18">
+        <v>1</v>
+      </c>
+      <c r="L18">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M18">
+        <v>0.01218566666666667</v>
+      </c>
+      <c r="N18">
+        <v>0.036557</v>
+      </c>
+      <c r="O18">
+        <v>0.001323065176875323</v>
+      </c>
+      <c r="P18">
+        <v>0.001323065176875324</v>
+      </c>
+      <c r="Q18">
+        <v>1.949091306747556</v>
+      </c>
+      <c r="R18">
+        <v>17.541821760728</v>
+      </c>
+      <c r="S18">
+        <v>0.0002669886129266984</v>
+      </c>
+      <c r="T18">
+        <v>0.0002669886129266985</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20">
+      <c r="A19" t="s">
+        <v>24</v>
+      </c>
+      <c r="B19" t="s">
+        <v>26</v>
+      </c>
+      <c r="C19" t="s">
+        <v>27</v>
+      </c>
+      <c r="D19" t="s">
+        <v>22</v>
+      </c>
+      <c r="E19">
+        <v>3</v>
+      </c>
+      <c r="F19">
+        <v>1</v>
+      </c>
+      <c r="G19">
+        <v>159.9495013333334</v>
+      </c>
+      <c r="H19">
+        <v>479.848504</v>
+      </c>
+      <c r="I19">
+        <v>0.2017955106015594</v>
+      </c>
+      <c r="J19">
+        <v>0.2017955106015595</v>
+      </c>
+      <c r="K19">
+        <v>2</v>
+      </c>
+      <c r="L19">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M19">
+        <v>0.2032383333333333</v>
+      </c>
+      <c r="N19">
+        <v>0.609715</v>
+      </c>
+      <c r="O19">
+        <v>0.02206670909315693</v>
+      </c>
+      <c r="P19">
+        <v>0.02206670909315693</v>
+      </c>
+      <c r="Q19">
+        <v>32.50787006848445</v>
+      </c>
+      <c r="R19">
+        <v>292.57083061636</v>
+      </c>
+      <c r="S19">
+        <v>0.004452962828749677</v>
+      </c>
+      <c r="T19">
+        <v>0.004452962828749679</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20">
+      <c r="A20" t="s">
+        <v>24</v>
+      </c>
+      <c r="B20" t="s">
+        <v>26</v>
+      </c>
+      <c r="C20" t="s">
+        <v>27</v>
+      </c>
+      <c r="D20" t="s">
+        <v>23</v>
+      </c>
+      <c r="E20">
+        <v>3</v>
+      </c>
+      <c r="F20">
+        <v>1</v>
+      </c>
+      <c r="G20">
+        <v>159.9495013333334</v>
+      </c>
+      <c r="H20">
+        <v>479.848504</v>
+      </c>
+      <c r="I20">
+        <v>0.2017955106015594</v>
+      </c>
+      <c r="J20">
+        <v>0.2017955106015595</v>
+      </c>
+      <c r="K20">
+        <v>1</v>
+      </c>
+      <c r="L20">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M20">
+        <v>0.05279966666666667</v>
+      </c>
+      <c r="N20">
+        <v>0.158399</v>
+      </c>
+      <c r="O20">
+        <v>0.005732751619440172</v>
+      </c>
+      <c r="P20">
+        <v>0.005732751619440174</v>
+      </c>
+      <c r="Q20">
+        <v>8.445280353899557</v>
+      </c>
+      <c r="R20">
+        <v>76.00752318509602</v>
+      </c>
+      <c r="S20">
+        <v>0.001156843540196846</v>
+      </c>
+      <c r="T20">
+        <v>0.001156843540196847</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20">
+      <c r="A21" t="s">
+        <v>24</v>
+      </c>
+      <c r="B21" t="s">
+        <v>26</v>
+      </c>
+      <c r="C21" t="s">
+        <v>27</v>
+      </c>
+      <c r="D21" t="s">
+        <v>24</v>
+      </c>
+      <c r="E21">
+        <v>3</v>
+      </c>
+      <c r="F21">
+        <v>1</v>
+      </c>
+      <c r="G21">
+        <v>159.9495013333334</v>
+      </c>
+      <c r="H21">
+        <v>479.848504</v>
+      </c>
+      <c r="I21">
+        <v>0.2017955106015594</v>
+      </c>
+      <c r="J21">
+        <v>0.2017955106015595</v>
+      </c>
+      <c r="K21">
+        <v>3</v>
+      </c>
+      <c r="L21">
+        <v>1</v>
+      </c>
+      <c r="M21">
+        <v>8.941955</v>
+      </c>
+      <c r="N21">
+        <v>26.825865</v>
+      </c>
+      <c r="O21">
+        <v>0.9708774741105275</v>
+      </c>
+      <c r="P21">
+        <v>0.9708774741105276</v>
+      </c>
+      <c r="Q21">
+        <v>1430.261243195107</v>
+      </c>
+      <c r="R21">
+        <v>12872.35118875596</v>
+      </c>
+      <c r="S21">
+        <v>0.1959187156196862</v>
+      </c>
+      <c r="T21">
+        <v>0.1959187156196862</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20">
+      <c r="A22" t="s">
         <v>25</v>
       </c>
-      <c r="B7" t="s">
-        <v>26</v>
-      </c>
-      <c r="C7" t="s">
-        <v>27</v>
-      </c>
-      <c r="D7" t="s">
+      <c r="B22" t="s">
+        <v>26</v>
+      </c>
+      <c r="C22" t="s">
+        <v>27</v>
+      </c>
+      <c r="D22" t="s">
+        <v>21</v>
+      </c>
+      <c r="E22">
+        <v>3</v>
+      </c>
+      <c r="F22">
+        <v>1</v>
+      </c>
+      <c r="G22">
+        <v>42.54239833333333</v>
+      </c>
+      <c r="H22">
+        <v>127.627195</v>
+      </c>
+      <c r="I22">
+        <v>0.05367234609877993</v>
+      </c>
+      <c r="J22">
+        <v>0.05367234609877995</v>
+      </c>
+      <c r="K22">
+        <v>1</v>
+      </c>
+      <c r="L22">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M22">
+        <v>0.01218566666666667</v>
+      </c>
+      <c r="N22">
+        <v>0.036557</v>
+      </c>
+      <c r="O22">
+        <v>0.001323065176875323</v>
+      </c>
+      <c r="P22">
+        <v>0.001323065176875324</v>
+      </c>
+      <c r="Q22">
+        <v>0.5184074852905555</v>
+      </c>
+      <c r="R22">
+        <v>4.665667367615</v>
+      </c>
+      <c r="S22">
+        <v>7.101201208449584E-05</v>
+      </c>
+      <c r="T22">
+        <v>7.101201208449587E-05</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20">
+      <c r="A23" t="s">
+        <v>25</v>
+      </c>
+      <c r="B23" t="s">
+        <v>26</v>
+      </c>
+      <c r="C23" t="s">
+        <v>27</v>
+      </c>
+      <c r="D23" t="s">
+        <v>22</v>
+      </c>
+      <c r="E23">
+        <v>3</v>
+      </c>
+      <c r="F23">
+        <v>1</v>
+      </c>
+      <c r="G23">
+        <v>42.54239833333333</v>
+      </c>
+      <c r="H23">
+        <v>127.627195</v>
+      </c>
+      <c r="I23">
+        <v>0.05367234609877993</v>
+      </c>
+      <c r="J23">
+        <v>0.05367234609877995</v>
+      </c>
+      <c r="K23">
+        <v>2</v>
+      </c>
+      <c r="L23">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M23">
+        <v>0.2032383333333333</v>
+      </c>
+      <c r="N23">
+        <v>0.609715</v>
+      </c>
+      <c r="O23">
+        <v>0.02206670909315693</v>
+      </c>
+      <c r="P23">
+        <v>0.02206670909315693</v>
+      </c>
+      <c r="Q23">
+        <v>8.646246133269443</v>
+      </c>
+      <c r="R23">
+        <v>77.816215199425</v>
+      </c>
+      <c r="S23">
+        <v>0.001184372047709013</v>
+      </c>
+      <c r="T23">
+        <v>0.001184372047709014</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20">
+      <c r="A24" t="s">
+        <v>25</v>
+      </c>
+      <c r="B24" t="s">
+        <v>26</v>
+      </c>
+      <c r="C24" t="s">
+        <v>27</v>
+      </c>
+      <c r="D24" t="s">
+        <v>23</v>
+      </c>
+      <c r="E24">
+        <v>3</v>
+      </c>
+      <c r="F24">
+        <v>1</v>
+      </c>
+      <c r="G24">
+        <v>42.54239833333333</v>
+      </c>
+      <c r="H24">
+        <v>127.627195</v>
+      </c>
+      <c r="I24">
+        <v>0.05367234609877993</v>
+      </c>
+      <c r="J24">
+        <v>0.05367234609877995</v>
+      </c>
+      <c r="K24">
+        <v>1</v>
+      </c>
+      <c r="L24">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M24">
+        <v>0.05279966666666667</v>
+      </c>
+      <c r="N24">
+        <v>0.158399</v>
+      </c>
+      <c r="O24">
+        <v>0.005732751619440172</v>
+      </c>
+      <c r="P24">
+        <v>0.005732751619440174</v>
+      </c>
+      <c r="Q24">
+        <v>2.246224451200555</v>
+      </c>
+      <c r="R24">
+        <v>20.216020060805</v>
+      </c>
+      <c r="S24">
+        <v>0.0003076902290169341</v>
+      </c>
+      <c r="T24">
+        <v>0.0003076902290169342</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20">
+      <c r="A25" t="s">
+        <v>25</v>
+      </c>
+      <c r="B25" t="s">
+        <v>26</v>
+      </c>
+      <c r="C25" t="s">
+        <v>27</v>
+      </c>
+      <c r="D25" t="s">
         <v>24</v>
       </c>
-      <c r="E7">
-        <v>1</v>
-      </c>
-      <c r="F7">
-        <v>1</v>
-      </c>
-      <c r="G7">
-        <v>41.3442433879317</v>
-      </c>
-      <c r="H7">
-        <v>41.3442433879317</v>
-      </c>
-      <c r="I7">
-        <v>0.05392873711084584</v>
-      </c>
-      <c r="J7">
-        <v>0.05392873711084584</v>
-      </c>
-      <c r="K7">
-        <v>1</v>
-      </c>
-      <c r="L7">
-        <v>1</v>
-      </c>
-      <c r="M7">
-        <v>8.849153618004211</v>
-      </c>
-      <c r="N7">
-        <v>8.849153618004211</v>
-      </c>
-      <c r="O7">
-        <v>1</v>
-      </c>
-      <c r="P7">
-        <v>1</v>
-      </c>
-      <c r="Q7">
-        <v>365.8615609599624</v>
-      </c>
-      <c r="R7">
-        <v>365.8615609599624</v>
-      </c>
-      <c r="S7">
-        <v>0.05392873711084584</v>
-      </c>
-      <c r="T7">
-        <v>0.05392873711084584</v>
+      <c r="E25">
+        <v>3</v>
+      </c>
+      <c r="F25">
+        <v>1</v>
+      </c>
+      <c r="G25">
+        <v>42.54239833333333</v>
+      </c>
+      <c r="H25">
+        <v>127.627195</v>
+      </c>
+      <c r="I25">
+        <v>0.05367234609877993</v>
+      </c>
+      <c r="J25">
+        <v>0.05367234609877995</v>
+      </c>
+      <c r="K25">
+        <v>3</v>
+      </c>
+      <c r="L25">
+        <v>1</v>
+      </c>
+      <c r="M25">
+        <v>8.941955</v>
+      </c>
+      <c r="N25">
+        <v>26.825865</v>
+      </c>
+      <c r="O25">
+        <v>0.9708774741105275</v>
+      </c>
+      <c r="P25">
+        <v>0.9708774741105276</v>
+      </c>
+      <c r="Q25">
+        <v>380.4122114887417</v>
+      </c>
+      <c r="R25">
+        <v>3423.709903398675</v>
+      </c>
+      <c r="S25">
+        <v>0.05210927180996949</v>
+      </c>
+      <c r="T25">
+        <v>0.05210927180996951</v>
       </c>
     </row>
   </sheetData>
